--- a/AbacusInsightsCodingChallenge/EmployeeData.xlsx
+++ b/AbacusInsightsCodingChallenge/EmployeeData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="161">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -487,6 +487,33 @@
   </si>
   <si>
     <t>103702</t>
+  </si>
+  <si>
+    <t>uEWYzTax3Y</t>
+  </si>
+  <si>
+    <t>932881</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>106233</t>
+  </si>
+  <si>
+    <t>822565</t>
+  </si>
+  <si>
+    <t>SZAAS71fgC</t>
+  </si>
+  <si>
+    <t>45140</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>106234</t>
   </si>
 </sst>
 </file>
@@ -871,16 +898,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E2">
         <v>12121212</v>

--- a/AbacusInsightsCodingChallenge/EmployeeData.xlsx
+++ b/AbacusInsightsCodingChallenge/EmployeeData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="208">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -514,6 +514,147 @@
   </si>
   <si>
     <t>106234</t>
+  </si>
+  <si>
+    <t>s2Fe0r46VE</t>
+  </si>
+  <si>
+    <t>871173</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>mmihBryQ44</t>
+  </si>
+  <si>
+    <t>932737</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>aIFtxOCkvT</t>
+  </si>
+  <si>
+    <t>486355</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>r4XTxCheAM</t>
+  </si>
+  <si>
+    <t>138639</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Ob1JRabbxp</t>
+  </si>
+  <si>
+    <t>173183</t>
+  </si>
+  <si>
+    <t>LLOLsR10nl</t>
+  </si>
+  <si>
+    <t>875792</t>
+  </si>
+  <si>
+    <t>SZX0r7iQfy</t>
+  </si>
+  <si>
+    <t>603050</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>pSOzkFfuED</t>
+  </si>
+  <si>
+    <t>658830</t>
+  </si>
+  <si>
+    <t>x6twGaqQFv</t>
+  </si>
+  <si>
+    <t>392817</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9pEnXnFDkU</t>
+  </si>
+  <si>
+    <t>857883</t>
+  </si>
+  <si>
+    <t>hs7qb2HjrS</t>
+  </si>
+  <si>
+    <t>607460</t>
+  </si>
+  <si>
+    <t>106370</t>
+  </si>
+  <si>
+    <t>JR1Rftmi1w</t>
+  </si>
+  <si>
+    <t>98295</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>106371</t>
+  </si>
+  <si>
+    <t>HrhkLib24E</t>
+  </si>
+  <si>
+    <t>964700</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>ZJCJlZoEE0</t>
+  </si>
+  <si>
+    <t>189987</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>i5SD9rIadx</t>
+  </si>
+  <si>
+    <t>34924</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>106383</t>
+  </si>
+  <si>
+    <t>513660</t>
+  </si>
+  <si>
+    <t>b4CzGy1yQ8</t>
+  </si>
+  <si>
+    <t>332954</t>
+  </si>
+  <si>
+    <t>106384</t>
   </si>
 </sst>
 </file>
@@ -898,16 +1039,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E2">
         <v>12121212</v>

--- a/AbacusInsightsCodingChallenge/EmployeeData.xlsx
+++ b/AbacusInsightsCodingChallenge/EmployeeData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="286">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -655,6 +655,240 @@
   </si>
   <si>
     <t>106384</t>
+  </si>
+  <si>
+    <t>UWhYdTDhUZ</t>
+  </si>
+  <si>
+    <t>478559</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>106386</t>
+  </si>
+  <si>
+    <t>73453</t>
+  </si>
+  <si>
+    <t>SE4v5d8B8h</t>
+  </si>
+  <si>
+    <t>283231</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>106388</t>
+  </si>
+  <si>
+    <t>Qt6JMSUgys</t>
+  </si>
+  <si>
+    <t>157847</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1NdDk8XatQ</t>
+  </si>
+  <si>
+    <t>266317</t>
+  </si>
+  <si>
+    <t>rtwWWMWIf8</t>
+  </si>
+  <si>
+    <t>613175</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>106402</t>
+  </si>
+  <si>
+    <t>216277</t>
+  </si>
+  <si>
+    <t>1MNktnVQzN</t>
+  </si>
+  <si>
+    <t>401689</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>106404</t>
+  </si>
+  <si>
+    <t>PlsmYldwHQ</t>
+  </si>
+  <si>
+    <t>904484</t>
+  </si>
+  <si>
+    <t>106406</t>
+  </si>
+  <si>
+    <t>625334</t>
+  </si>
+  <si>
+    <t>ZtPRkF5zeq</t>
+  </si>
+  <si>
+    <t>988551</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>106407</t>
+  </si>
+  <si>
+    <t>UsOes5rjwF</t>
+  </si>
+  <si>
+    <t>804648</t>
+  </si>
+  <si>
+    <t>106416</t>
+  </si>
+  <si>
+    <t>830877</t>
+  </si>
+  <si>
+    <t>LsnZsrKz4D</t>
+  </si>
+  <si>
+    <t>606609</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>106417</t>
+  </si>
+  <si>
+    <t>IvJuKAJX8z</t>
+  </si>
+  <si>
+    <t>172696</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>106439</t>
+  </si>
+  <si>
+    <t>568361</t>
+  </si>
+  <si>
+    <t>xd1NWXssLv</t>
+  </si>
+  <si>
+    <t>575960</t>
+  </si>
+  <si>
+    <t>106440</t>
+  </si>
+  <si>
+    <t>PKsZPA4bux</t>
+  </si>
+  <si>
+    <t>956451</t>
+  </si>
+  <si>
+    <t>106442</t>
+  </si>
+  <si>
+    <t>351469</t>
+  </si>
+  <si>
+    <t>haiIbJtY6C</t>
+  </si>
+  <si>
+    <t>14781</t>
+  </si>
+  <si>
+    <t>106443</t>
+  </si>
+  <si>
+    <t>UKRd41SRWu</t>
+  </si>
+  <si>
+    <t>731790</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>106446</t>
+  </si>
+  <si>
+    <t>563618</t>
+  </si>
+  <si>
+    <t>o06NdGAMVR</t>
+  </si>
+  <si>
+    <t>580626</t>
+  </si>
+  <si>
+    <t>106447</t>
+  </si>
+  <si>
+    <t>7y03luVCHs</t>
+  </si>
+  <si>
+    <t>407505</t>
+  </si>
+  <si>
+    <t>106458</t>
+  </si>
+  <si>
+    <t>293300</t>
+  </si>
+  <si>
+    <t>WmUvtyVUOs</t>
+  </si>
+  <si>
+    <t>60606</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>106459</t>
+  </si>
+  <si>
+    <t>GwKLQ6rSF8</t>
+  </si>
+  <si>
+    <t>226223</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>106484</t>
+  </si>
+  <si>
+    <t>440969</t>
+  </si>
+  <si>
+    <t>5CdsREdWJY</t>
+  </si>
+  <si>
+    <t>84080</t>
+  </si>
+  <si>
+    <t>106485</t>
   </si>
 </sst>
 </file>
@@ -1039,16 +1273,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E2">
         <v>12121212</v>
